--- a/Industry/201612-201908/HKD/MILLION/Analysis_34_30.1 - Wine in 8-digit HS Codes_HKD_MILLION_201612-201908.xlsx
+++ b/Industry/201612-201908/HKD/MILLION/Analysis_34_30.1 - Wine in 8-digit HS Codes_HKD_MILLION_201612-201908.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11316" windowWidth="19920" xWindow="768" yWindow="768"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11460" windowWidth="18480" xWindow="348" yWindow="360"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="table1" sheetId="1" state="visible" r:id="rId1"/>
@@ -26,7 +26,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IMbyEuropeasOrigin" sheetId="18" state="visible" r:id="rId18"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DXbyproduct" sheetId="19" state="visible" r:id="rId19"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TXbyproduct" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IMbyproduct" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RXbyproduct" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IMbyproduct" sheetId="22" state="visible" r:id="rId22"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -87,7 +88,7 @@
     <t>Re-exports Quantity</t>
   </si>
   <si>
-    <t>Imports by Origin Quantity</t>
+    <t>Imports Quantity</t>
   </si>
   <si>
     <t>ARGENTINA</t>
@@ -13812,6 +13813,566 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
+    <col bestFit="1" customWidth="1" max="3" min="1" width="9"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" width="8"/>
+    <col bestFit="1" customWidth="1" max="6" min="5" width="9"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" width="8"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" width="9"/>
+    <col bestFit="1" customWidth="1" max="9" min="9" width="8"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1" customHeight="1" ht="57.6" r="1" s="3" spans="1:14">
+      <c r="A1" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" t="n">
+        <v>5198.345</v>
+      </c>
+      <c r="C2" t="n">
+        <v>4422.02</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-14.934</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2659.443</v>
+      </c>
+      <c r="F2" t="n">
+        <v>3425.538</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-22.535</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1001.498</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-62.342</v>
+      </c>
+      <c r="J2" t="n">
+        <v>100</v>
+      </c>
+      <c r="K2" t="n">
+        <v>100</v>
+      </c>
+      <c r="L2" t="n">
+        <v>100</v>
+      </c>
+      <c r="M2" t="n">
+        <v>100</v>
+      </c>
+      <c r="N2" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3" t="n">
+        <v>4913.837</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4170.875</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-15.12</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2511.883</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3239.421</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-22.332</v>
+      </c>
+      <c r="H3" t="n">
+        <v>927.0359999999999</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-63.094</v>
+      </c>
+      <c r="J3" t="n">
+        <v>94.527</v>
+      </c>
+      <c r="K3" t="n">
+        <v>94.321</v>
+      </c>
+      <c r="L3" t="n">
+        <v>94.45099999999999</v>
+      </c>
+      <c r="M3" t="n">
+        <v>94.56699999999999</v>
+      </c>
+      <c r="N3" t="n">
+        <v>92.565</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B4" t="n">
+        <v>56.17</v>
+      </c>
+      <c r="C4" t="n">
+        <v>44.003</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-21.66</v>
+      </c>
+      <c r="E4" t="n">
+        <v>28.337</v>
+      </c>
+      <c r="F4" t="n">
+        <v>43.808</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-0.444</v>
+      </c>
+      <c r="H4" t="n">
+        <v>29.115</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.746</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1.081</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.066</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.279</v>
+      </c>
+      <c r="N4" t="n">
+        <v>2.907</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B5" t="n">
+        <v>185.339</v>
+      </c>
+      <c r="C5" t="n">
+        <v>155.51</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-16.095</v>
+      </c>
+      <c r="E5" t="n">
+        <v>94.09699999999999</v>
+      </c>
+      <c r="F5" t="n">
+        <v>109.044</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-29.88</v>
+      </c>
+      <c r="H5" t="n">
+        <v>21.682</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-76.958</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.565</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3.517</v>
+      </c>
+      <c r="L5" t="n">
+        <v>3.538</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3.183</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2.165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B6" t="n">
+        <v>8.471</v>
+      </c>
+      <c r="C6" t="n">
+        <v>7.359</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-13.125</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4.092</v>
+      </c>
+      <c r="F6" t="n">
+        <v>6.136</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-16.621</v>
+      </c>
+      <c r="H6" t="n">
+        <v>7.016</v>
+      </c>
+      <c r="I6" t="n">
+        <v>71.46299999999999</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.163</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.166</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.179</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.701</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B7" t="n">
+        <v>14.444</v>
+      </c>
+      <c r="C7" t="n">
+        <v>9.651</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-33.183</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.909</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2.927</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-69.667</v>
+      </c>
+      <c r="H7" t="n">
+        <v>5.824</v>
+      </c>
+      <c r="I7" t="n">
+        <v>205.116</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.278</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.218</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.07199999999999999</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.582</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B8" t="n">
+        <v>14.636</v>
+      </c>
+      <c r="C8" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-64.404</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3.607</v>
+      </c>
+      <c r="F8" t="n">
+        <v>4.669</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-10.38</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.905</v>
+      </c>
+      <c r="I8" t="n">
+        <v>8.266</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.282</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.118</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.136</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.136</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2.329</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.824</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-21.676</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1.144</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="G9" t="n">
+        <v>3.271</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.609</v>
+      </c>
+      <c r="I9" t="n">
+        <v>215.367</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B10" t="n">
+        <v>3.012</v>
+      </c>
+      <c r="C10" t="n">
+        <v>25.864</v>
+      </c>
+      <c r="D10" t="n">
+        <v>758.769</v>
+      </c>
+      <c r="E10" t="n">
+        <v>10.941</v>
+      </c>
+      <c r="F10" t="n">
+        <v>12.139</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-53.065</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1.969</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-82.003</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.354</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.197</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.611</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5.323</v>
+      </c>
+      <c r="G11" t="n">
+        <v>230.397</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1.286</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-61.363</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.106</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.113</v>
+      </c>
+      <c r="D12" t="n">
+        <v>5.843</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.102</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.187</v>
+      </c>
+      <c r="G12" t="n">
+        <v>65.76600000000001</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-46.362</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection activeCell="A1" pane="bottomRight" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <cols>
     <col bestFit="1" customWidth="1" max="1" min="1" width="9"/>
     <col bestFit="1" customWidth="1" max="3" min="2" width="10"/>
     <col bestFit="1" customWidth="1" max="4" min="4" width="8"/>
